--- a/techniqo/data_new_ticker/COCHINSHIP.xlsx
+++ b/techniqo/data_new_ticker/COCHINSHIP.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G765"/>
+  <dimension ref="A1:G767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27161,6 +27161,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>339</v>
+      </c>
+      <c r="C766" t="n">
+        <v>344.45</v>
+      </c>
+      <c r="D766" t="n">
+        <v>337.15</v>
+      </c>
+      <c r="E766" t="n">
+        <v>342.65</v>
+      </c>
+      <c r="F766" t="n">
+        <v>172635</v>
+      </c>
+      <c r="G766" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>344.7</v>
+      </c>
+      <c r="C767" t="n">
+        <v>349</v>
+      </c>
+      <c r="D767" t="n">
+        <v>341.75</v>
+      </c>
+      <c r="E767" t="n">
+        <v>348.15</v>
+      </c>
+      <c r="F767" t="n">
+        <v>168471</v>
+      </c>
+      <c r="G767" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/COCHINSHIP.xlsx
+++ b/techniqo/data_new_ticker/COCHINSHIP.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G767"/>
+  <dimension ref="A1:G769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27211,6 +27211,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>350</v>
+      </c>
+      <c r="C768" t="n">
+        <v>350</v>
+      </c>
+      <c r="D768" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="E768" t="n">
+        <v>347.55</v>
+      </c>
+      <c r="F768" t="n">
+        <v>161655</v>
+      </c>
+      <c r="G768" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>349.4</v>
+      </c>
+      <c r="C769" t="n">
+        <v>350.45</v>
+      </c>
+      <c r="D769" t="n">
+        <v>343.05</v>
+      </c>
+      <c r="E769" t="n">
+        <v>344.35</v>
+      </c>
+      <c r="F769" t="n">
+        <v>249253</v>
+      </c>
+      <c r="G769" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
